--- a/data/DATA_Public0.5NCR0.3W0.7_0.3.xlsx
+++ b/data/DATA_Public0.5NCR0.3W0.7_0.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftzor\Desktop\IFAC\DEMo2\data for demo-20240309T223431Z-001\data for demo\Flow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftzor\Desktop\IFAC\DEMo2\data for demo-20240309T223431Z-001\data for demo\Flow\SHANTING FINAL\Change PR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2613C0D-499F-47DF-888F-F31CBEB96A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30380B49-FB36-44B2-A3C0-EF7496B1B5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B04FF825-1604-464B-92EC-FCAB9ACA33E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E368752-0FF7-47BB-9B89-4D1A067FCBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,11 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB556515-0EA3-4209-88CD-2337E4075A91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D0157F-318A-4665-8145-1B0531470EAA}">
   <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C84"/>
+      <selection activeCell="C1" sqref="C1:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,7 +424,7 @@
       <c r="B1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>36.106958525480707</v>
       </c>
     </row>
@@ -428,7 +435,7 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>96.036787840478596</v>
       </c>
     </row>
@@ -439,7 +446,7 @@
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>100.31116114169163</v>
       </c>
     </row>
@@ -450,7 +457,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>25.601151234957843</v>
       </c>
     </row>
@@ -461,7 +468,7 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>61.531820478526463</v>
       </c>
     </row>
@@ -472,7 +479,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>62.550955096896757</v>
       </c>
     </row>
@@ -483,7 +490,7 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>70.015140934292845</v>
       </c>
     </row>
@@ -494,7 +501,7 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>107.94789455796803</v>
       </c>
     </row>
@@ -505,7 +512,7 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>29.39903001389667</v>
       </c>
     </row>
@@ -516,7 +523,7 @@
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>29.788222188627781</v>
       </c>
     </row>
@@ -527,7 +534,7 @@
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>31.505893285551334</v>
       </c>
     </row>
@@ -538,7 +545,7 @@
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>34.528366432702491</v>
       </c>
     </row>
@@ -549,7 +556,7 @@
       <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>38.922844120807319</v>
       </c>
     </row>
@@ -560,7 +567,7 @@
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>48.555964985333553</v>
       </c>
     </row>
@@ -571,7 +578,7 @@
       <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>88.152360287319169</v>
       </c>
     </row>
@@ -582,7 +589,7 @@
       <c r="B16">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>84.941153152918488</v>
       </c>
     </row>
@@ -593,7 +600,7 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>31.301357289114993</v>
       </c>
     </row>
@@ -604,7 +611,7 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>28.117023898265252</v>
       </c>
     </row>
@@ -615,7 +622,7 @@
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>33.187953900879783</v>
       </c>
     </row>
@@ -626,7 +633,7 @@
       <c r="B20">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>68.892661811941551</v>
       </c>
     </row>
@@ -637,7 +644,7 @@
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>73.388068248152393</v>
       </c>
     </row>
@@ -648,7 +655,7 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>23.335230685077246</v>
       </c>
     </row>
@@ -659,7 +666,7 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>32.808717203317521</v>
       </c>
     </row>
@@ -670,7 +677,7 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>22.205179098100441</v>
       </c>
     </row>
@@ -681,7 +688,7 @@
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>30.737469762958185</v>
       </c>
     </row>
@@ -692,7 +699,7 @@
       <c r="B26">
         <v>7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>31.207051059545726</v>
       </c>
     </row>
@@ -703,7 +710,7 @@
       <c r="B27">
         <v>9</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>50.065645785371267</v>
       </c>
     </row>
@@ -714,7 +721,7 @@
       <c r="B28">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>51.820941493227103</v>
       </c>
     </row>
@@ -725,7 +732,7 @@
       <c r="B29">
         <v>11</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>74.120481433206407</v>
       </c>
     </row>
@@ -736,7 +743,7 @@
       <c r="B30">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>25.032410616191868</v>
       </c>
     </row>
@@ -747,7 +754,7 @@
       <c r="B31">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>31.016143165561562</v>
       </c>
     </row>
@@ -758,7 +765,7 @@
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>26.932583934980805</v>
       </c>
     </row>
@@ -769,7 +776,7 @@
       <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>32.241019507527028</v>
       </c>
     </row>
@@ -780,7 +787,7 @@
       <c r="B34">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>24.377243792016355</v>
       </c>
     </row>
@@ -791,7 +798,7 @@
       <c r="B35">
         <v>10</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>51.163587216994976</v>
       </c>
     </row>
@@ -802,7 +809,7 @@
       <c r="B36">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>73.844745548740619</v>
       </c>
     </row>
@@ -813,7 +820,7 @@
       <c r="B37">
         <v>12</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>77.751800046929759</v>
       </c>
     </row>
@@ -824,7 +831,7 @@
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>31.782929069244073</v>
       </c>
     </row>
@@ -835,7 +842,7 @@
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>28.575189275434013</v>
       </c>
     </row>
@@ -846,7 +853,7 @@
       <c r="B40">
         <v>7</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>28.244605312648602</v>
       </c>
     </row>
@@ -857,7 +864,7 @@
       <c r="B41">
         <v>11</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>60.83230475751229</v>
       </c>
     </row>
@@ -868,7 +875,7 @@
       <c r="B42">
         <v>12</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>64.78554429664959</v>
       </c>
     </row>
@@ -879,7 +886,7 @@
       <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>29.044302994911504</v>
       </c>
     </row>
@@ -890,7 +897,7 @@
       <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>26.04131868065285</v>
       </c>
     </row>
@@ -901,7 +908,7 @@
       <c r="B45">
         <v>10</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>27.892806146946189</v>
       </c>
     </row>
@@ -912,7 +919,7 @@
       <c r="B46">
         <v>13</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>54.178774703237721</v>
       </c>
     </row>
@@ -923,7 +930,7 @@
       <c r="B47">
         <v>14</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>43.512502693258632</v>
       </c>
     </row>
@@ -934,7 +941,7 @@
       <c r="B48">
         <v>5</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>24.811378931671292</v>
       </c>
     </row>
@@ -945,7 +952,7 @@
       <c r="B49">
         <v>6</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>23.519840508943375</v>
       </c>
     </row>
@@ -956,7 +963,7 @@
       <c r="B50">
         <v>7</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>24.190978577897543</v>
       </c>
     </row>
@@ -967,7 +974,7 @@
       <c r="B51">
         <v>9</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>24.811781822749694</v>
       </c>
     </row>
@@ -978,7 +985,7 @@
       <c r="B52">
         <v>11</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>26.971262160200958</v>
       </c>
     </row>
@@ -989,7 +996,7 @@
       <c r="B53">
         <v>13</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>53.337846370995649</v>
       </c>
     </row>
@@ -1000,7 +1007,7 @@
       <c r="B54">
         <v>14</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>43.615514476969082</v>
       </c>
     </row>
@@ -1011,7 +1018,7 @@
       <c r="B55">
         <v>15</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>54.022649976140904</v>
       </c>
     </row>
@@ -1022,7 +1029,7 @@
       <c r="B56">
         <v>6</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>27.591109947338733</v>
       </c>
     </row>
@@ -1033,7 +1040,7 @@
       <c r="B57">
         <v>7</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>27.573259994584827</v>
       </c>
     </row>
@@ -1044,7 +1051,7 @@
       <c r="B58">
         <v>8</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>25.894738078021412</v>
       </c>
     </row>
@@ -1055,7 +1062,7 @@
       <c r="B59">
         <v>10</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>32.123673375703341</v>
       </c>
     </row>
@@ -1066,7 +1073,7 @@
       <c r="B60">
         <v>12</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>33.972856093736887</v>
       </c>
     </row>
@@ -1077,7 +1084,7 @@
       <c r="B61">
         <v>14</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>35.048059417697552</v>
       </c>
     </row>
@@ -1088,7 +1095,7 @@
       <c r="B62">
         <v>15</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>42.684682932872796</v>
       </c>
     </row>
@@ -1099,7 +1106,7 @@
       <c r="B63">
         <v>16</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>73.091142213499666</v>
       </c>
     </row>
@@ -1110,7 +1117,7 @@
       <c r="B64">
         <v>7</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>24.831041936276304</v>
       </c>
     </row>
@@ -1121,7 +1128,7 @@
       <c r="B65">
         <v>8</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>26.62794992036066</v>
       </c>
     </row>
@@ -1132,7 +1139,7 @@
       <c r="B66">
         <v>11</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>23.222265509557538</v>
       </c>
     </row>
@@ -1143,7 +1150,7 @@
       <c r="B67">
         <v>15</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>23.736902453738502</v>
       </c>
     </row>
@@ -1154,7 +1161,7 @@
       <c r="B68">
         <v>16</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>35.761180925236459</v>
       </c>
     </row>
@@ -1165,7 +1172,7 @@
       <c r="B69">
         <v>9</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>32.744874907160892</v>
       </c>
     </row>
@@ -1176,7 +1183,7 @@
       <c r="B70">
         <v>10</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>28.525387514715316</v>
       </c>
     </row>
@@ -1187,7 +1194,7 @@
       <c r="B71">
         <v>14</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>22.816019552645418</v>
       </c>
     </row>
@@ -1198,7 +1205,7 @@
       <c r="B72">
         <v>9</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>24.754485194278967</v>
       </c>
     </row>
@@ -1209,7 +1216,7 @@
       <c r="B73">
         <v>10</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>26.065756481229098</v>
       </c>
     </row>
@@ -1220,7 +1227,7 @@
       <c r="B74">
         <v>11</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>31.25014936834663</v>
       </c>
     </row>
@@ -1231,7 +1238,7 @@
       <c r="B75">
         <v>13</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>22.3277326987997</v>
       </c>
     </row>
@@ -1242,7 +1249,7 @@
       <c r="B76">
         <v>15</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>23.047572899534718</v>
       </c>
     </row>
@@ -1253,7 +1260,7 @@
       <c r="B77">
         <v>10</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>24.025735710971496</v>
       </c>
     </row>
@@ -1264,7 +1271,7 @@
       <c r="B78">
         <v>11</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>29.344048337979164</v>
       </c>
     </row>
@@ -1275,7 +1282,7 @@
       <c r="B79">
         <v>12</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>30.25907873344989</v>
       </c>
     </row>
@@ -1286,7 +1293,7 @@
       <c r="B80">
         <v>14</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>29.328878360894482</v>
       </c>
     </row>
@@ -1297,7 +1304,7 @@
       <c r="B81">
         <v>16</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>27.578922957609485</v>
       </c>
     </row>
@@ -1308,7 +1315,7 @@
       <c r="B82">
         <v>11</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>28.213021576094899</v>
       </c>
     </row>
@@ -1319,7 +1326,7 @@
       <c r="B83">
         <v>12</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>25.436168923655337</v>
       </c>
     </row>
@@ -1330,7 +1337,7 @@
       <c r="B84">
         <v>15</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>30.402751093744506</v>
       </c>
     </row>
